--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-code-rule.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-code-rule.xlsx
@@ -3,30 +3,30 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\develop\HapDev\workspace_hzero\hzero-resource\init-data\saas\hzero-platform\hzero_platform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WorkDev\hzero-generator\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28691" windowHeight="14218" tabRatio="597" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14220" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="编码规则数据" sheetId="2" r:id="rId2"/>
+    <sheet name="编码规则数据" r:id="rId5" sheetId="2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
-    <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
-    <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="143">
   <si>
     <r>
       <rPr>
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-03-12</t>
+    <t>2020-05-29</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2058,6 +2058,33 @@
     <t>租户编码</t>
   </si>
   <si>
+    <t>hpfm_code_rule-11</t>
+  </si>
+  <si>
+    <t>HIAM.DOCUMENT_AUTHORITY</t>
+  </si>
+  <si>
+    <t>单据权限生成数据权限编码</t>
+  </si>
+  <si>
+    <t>hpfm_code_rule-12</t>
+  </si>
+  <si>
+    <t>HPFM.UNIT</t>
+  </si>
+  <si>
+    <t>组织编码</t>
+  </si>
+  <si>
+    <t>hpfm_code_rule-13</t>
+  </si>
+  <si>
+    <t>HPFM.POSITION</t>
+  </si>
+  <si>
+    <t>岗位编码</t>
+  </si>
+  <si>
     <t>编码规则分配</t>
   </si>
   <si>
@@ -2082,30 +2109,57 @@
     <t>enabled_flag</t>
   </si>
   <si>
+    <t>hpfm_code_rule_dist-16</t>
+  </si>
+  <si>
+    <t>COM</t>
+  </si>
+  <si>
+    <t>CO00000021</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>CD + 8位流水</t>
+  </si>
+  <si>
+    <t>hpfm_code_rule_dist-17</t>
+  </si>
+  <si>
+    <t>CUSTOM</t>
+  </si>
+  <si>
+    <t>测试自定义</t>
+  </si>
+  <si>
+    <t>hpfm_code_rule_dist-18</t>
+  </si>
+  <si>
     <t>GLOBAL</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>hpfm_code_rule_dist-16</t>
-  </si>
-  <si>
     <t>CO + 8位流水</t>
   </si>
   <si>
-    <t>hpfm_code_rule_dist-17</t>
+    <t>hpfm_code_rule_dist-19</t>
   </si>
   <si>
     <t>BG + 8位流水</t>
   </si>
   <si>
-    <t>hpfm_code_rule_dist-18</t>
+    <t>hpfm_code_rule_dist-20</t>
+  </si>
+  <si>
+    <t>hpfm_code_rule_dist-21</t>
   </si>
   <si>
     <t>T + 5位流水</t>
   </si>
   <si>
+    <t>hpfm_code_rule_dist-22</t>
+  </si>
+  <si>
     <t>编码规则明细</t>
   </si>
   <si>
@@ -2136,9 +2190,15 @@
     <t>start_value</t>
   </si>
   <si>
+    <t>current_value</t>
+  </si>
+  <si>
     <t>reset_frequency</t>
   </si>
   <si>
+    <t>reset_date(DATE)</t>
+  </si>
+  <si>
     <t>*</t>
   </si>
   <si>
@@ -2157,19 +2217,68 @@
     <t>8</t>
   </si>
   <si>
+    <t>601</t>
+  </si>
+  <si>
     <t>NEVER</t>
   </si>
   <si>
+    <t>2020-05-15 00:00:00.0</t>
+  </si>
+  <si>
     <t>BG</t>
   </si>
   <si>
+    <t>1900</t>
+  </si>
+  <si>
+    <t>2020-04-03 00:00:00.0</t>
+  </si>
+  <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>15400</t>
+  </si>
+  <si>
+    <t>2020-04-30 00:00:00.0</t>
+  </si>
+  <si>
+    <t>UN</t>
+  </si>
+  <si>
+    <t>1700</t>
+  </si>
+  <si>
+    <t>2020-03-24 00:00:00.0</t>
+  </si>
+  <si>
+    <t>PO</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>2020-03-25 00:00:00.0</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>2020-02-03 00:00:00.0</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2020-04-27 00:00:00.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="38">
     <font>
       <sz val="12"/>
@@ -2289,124 +2398,104 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2599,26 +2688,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2634,6 +2703,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2980,56 +3069,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.55"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.58203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.08203125" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="38.58203125" customWidth="1"/>
-    <col min="6" max="6" width="23.4140625" customWidth="1"/>
-    <col min="7" max="7" width="21.58203125" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.58203125" customWidth="1"/>
-    <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.08203125" customWidth="1"/>
-    <col min="12" max="12" width="18.58203125" customWidth="1"/>
-    <col min="13" max="13" width="13.08203125" customWidth="1"/>
-    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="15.5546875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="2" width="10.33203125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="28.109375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="3" width="35.33203125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="38.5546875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="21.5546875" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="22.0" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="24.5546875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="27.0" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="19.109375" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="18.5546875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="13.109375" collapsed="false"/>
+    <col min="14" max="1025" customWidth="true" width="10.33203125" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="64.45" customHeight="1">
+    <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="18">
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="49" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="C4" s="50" t="s">
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+    </row>
+    <row r="4" spans="1:8" ht="18">
+      <c r="C4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="50"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -3046,7 +3135,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="18">
       <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
@@ -3066,7 +3155,7 @@
       </c>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:8" ht="52.65">
+    <row r="9" spans="1:8" ht="51.75">
       <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
@@ -3080,7 +3169,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="52.65">
+    <row r="10" spans="1:8" ht="51.75">
       <c r="C10" s="19" t="s">
         <v>17</v>
       </c>
@@ -3091,7 +3180,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="70.2">
+    <row r="11" spans="1:8" ht="69">
       <c r="C11" s="13" t="s">
         <v>20</v>
       </c>
@@ -3123,7 +3212,7 @@
       <c r="D14" s="14"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:8" ht="35.1">
+    <row r="15" spans="1:8" ht="34.5">
       <c r="C15" s="21" t="s">
         <v>26</v>
       </c>
@@ -3140,13 +3229,13 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-    </row>
-    <row r="20" spans="3:5">
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+    </row>
+    <row r="20" spans="3:5" ht="18">
       <c r="C20" s="24" t="s">
         <v>31</v>
       </c>
@@ -3154,7 +3243,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
+    <row r="21" spans="3:5" ht="18">
       <c r="C21" s="24" t="s">
         <v>33</v>
       </c>
@@ -3162,7 +3251,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
+    <row r="22" spans="3:5" ht="18">
       <c r="C22" s="24" t="s">
         <v>35</v>
       </c>
@@ -3170,7 +3259,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
+    <row r="23" spans="3:5" ht="18">
       <c r="C23" s="24" t="s">
         <v>37</v>
       </c>
@@ -3182,21 +3271,21 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="47" t="s">
+      <c r="D25" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="47"/>
+      <c r="E25" s="27"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="47" t="s">
+      <c r="D26" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="47"/>
-    </row>
-    <row r="27" spans="3:5" ht="52.65">
+      <c r="E26" s="27"/>
+    </row>
+    <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="26" t="s">
         <v>43</v>
       </c>
@@ -3218,45 +3307,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.55"/>
-  <cols>
-    <col min="6" max="6" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="27" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="32">
         <v>44</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" t="s" s="33">
         <v>45</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" t="s" s="34">
         <v>9</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" t="s" s="35">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="E4" s="31" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="36">
         <v>47</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" t="s" s="37">
         <v>48</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" t="s" s="38">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3266,13 +3349,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" t="s" s="39">
         <v>53</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" t="s" s="40">
         <v>54</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" t="s" s="41">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -3281,14 +3364,14 @@
       <c r="H7" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="37" t="s">
+      <c r="I7" t="s" s="42">
         <v>58</v>
       </c>
       <c r="J7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8">
       <c r="E8" t="s">
         <v>60</v>
       </c>
@@ -3305,7 +3388,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9">
       <c r="E9" t="s">
         <v>65</v>
       </c>
@@ -3322,7 +3405,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10">
       <c r="E10" t="s">
         <v>68</v>
       </c>
@@ -3339,283 +3422,600 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" t="s">
+    <row r="11">
+      <c r="E11" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="F11" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="G11" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="40" t="s">
+      <c r="H11" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="E12" t="s">
         <v>74</v>
       </c>
-      <c r="G12" s="41" t="s">
+      <c r="F12" t="s">
         <v>75</v>
       </c>
-      <c r="H12" s="42" t="s">
+      <c r="G12" t="s">
         <v>76</v>
       </c>
+      <c r="H12" t="s">
+        <v>63</v>
+      </c>
       <c r="I12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="E13" t="s">
         <v>77</v>
       </c>
-      <c r="J12" t="s">
+      <c r="F13" t="s">
         <v>78</v>
-      </c>
-      <c r="K12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="E13" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13" t="str">
-        <f>编码规则数据!$E$8</f>
-        <v>hpfm_code_rule-8</v>
       </c>
       <c r="G13" t="s">
         <v>79</v>
       </c>
       <c r="H13" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="I13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
         <v>80</v>
       </c>
-      <c r="J13" t="s">
-        <v>80</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="D15" t="s" s="43">
+        <v>81</v>
+      </c>
+      <c r="E15" t="s" s="44">
         <v>82</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="E14" t="s">
+      <c r="F15" t="s" s="45">
         <v>83</v>
       </c>
-      <c r="F14" t="str">
-        <f>编码规则数据!$E$9</f>
-        <v>hpfm_code_rule-9</v>
-      </c>
-      <c r="G14" t="s">
-        <v>79</v>
-      </c>
-      <c r="H14" t="s">
-        <v>79</v>
-      </c>
-      <c r="I14" t="s">
-        <v>80</v>
-      </c>
-      <c r="J14" t="s">
-        <v>80</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="G15" t="s" s="46">
         <v>84</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="E15" t="s">
+      <c r="H15" t="s" s="47">
         <v>85</v>
       </c>
-      <c r="F15" t="str">
-        <f>编码规则数据!$E$10</f>
-        <v>hpfm_code_rule-10</v>
-      </c>
-      <c r="G15" t="s">
-        <v>79</v>
-      </c>
-      <c r="H15" t="s">
-        <v>79</v>
-      </c>
       <c r="I15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J15" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="K15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" s="43" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="E16" t="s">
         <v>88</v>
       </c>
-      <c r="E17" s="44" t="s">
+      <c r="F16">
+        <f>编码规则数据!$E$8</f>
+      </c>
+      <c r="G16" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="45" t="s">
+      <c r="H16" t="s">
         <v>90</v>
       </c>
-      <c r="G17" s="46" t="s">
+      <c r="I16" t="s">
         <v>91</v>
       </c>
+      <c r="J16" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="E17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17">
+        <f>编码规则数据!$E$8</f>
+      </c>
+      <c r="G17" t="s">
+        <v>94</v>
+      </c>
       <c r="H17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K17" t="s">
         <v>95</v>
       </c>
-      <c r="L17" t="s">
+    </row>
+    <row r="18">
+      <c r="E18" t="s">
         <v>96</v>
       </c>
-      <c r="M17" t="s">
+      <c r="F18">
+        <f>编码规则数据!$E$8</f>
+      </c>
+      <c r="G18" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="E18" t="s">
+      <c r="H18" t="s">
+        <v>97</v>
+      </c>
+      <c r="I18" t="s">
+        <v>91</v>
+      </c>
+      <c r="J18" t="s">
+        <v>91</v>
+      </c>
+      <c r="K18" t="s">
         <v>98</v>
       </c>
-      <c r="F18" t="str">
+    </row>
+    <row r="19">
+      <c r="E19" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19">
+        <f>编码规则数据!$E$9</f>
+      </c>
+      <c r="G19" t="s">
+        <v>97</v>
+      </c>
+      <c r="H19" t="s">
+        <v>97</v>
+      </c>
+      <c r="I19" t="s">
+        <v>91</v>
+      </c>
+      <c r="J19" t="s">
+        <v>91</v>
+      </c>
+      <c r="K19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="E20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20">
         <f>编码规则数据!$E$13</f>
-        <v>hpfm_code_rule_dist-16</v>
-      </c>
-      <c r="G18" t="s">
-        <v>80</v>
-      </c>
-      <c r="H18" t="s">
-        <v>99</v>
-      </c>
-      <c r="I18" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="E19" t="s">
-        <v>98</v>
-      </c>
-      <c r="F19" t="str">
-        <f>编码规则数据!$E$13</f>
-        <v>hpfm_code_rule_dist-16</v>
-      </c>
-      <c r="G19" t="s">
-        <v>101</v>
-      </c>
-      <c r="H19" t="s">
+      </c>
+      <c r="G20" t="s">
+        <v>97</v>
+      </c>
+      <c r="H20" t="s">
+        <v>97</v>
+      </c>
+      <c r="I20" t="s">
+        <v>91</v>
+      </c>
+      <c r="J20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="E21" t="s">
         <v>102</v>
       </c>
-      <c r="K19" t="s">
-        <v>103</v>
-      </c>
-      <c r="L19" t="s">
-        <v>80</v>
-      </c>
-      <c r="M19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="E20" t="s">
-        <v>98</v>
-      </c>
-      <c r="F20" t="str">
-        <f>编码规则数据!$E$14</f>
-        <v>hpfm_code_rule_dist-17</v>
-      </c>
-      <c r="G20" t="s">
-        <v>80</v>
-      </c>
-      <c r="H20" t="s">
-        <v>99</v>
-      </c>
-      <c r="I20" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="E21" t="s">
-        <v>98</v>
-      </c>
-      <c r="F21" t="str">
-        <f>编码规则数据!$E$14</f>
-        <v>hpfm_code_rule_dist-17</v>
+      <c r="F21">
+        <f>编码规则数据!$E$10</f>
       </c>
       <c r="G21" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H21" t="s">
-        <v>102</v>
+        <v>97</v>
+      </c>
+      <c r="I21" t="s">
+        <v>91</v>
+      </c>
+      <c r="J21" t="s">
+        <v>91</v>
       </c>
       <c r="K21" t="s">
         <v>103</v>
       </c>
-      <c r="L21" t="s">
-        <v>80</v>
-      </c>
-      <c r="M21" t="s">
+    </row>
+    <row r="22">
+      <c r="E22" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="E22" t="s">
-        <v>98</v>
-      </c>
-      <c r="F22" t="str">
-        <f>编码规则数据!$E$15</f>
-        <v>hpfm_code_rule_dist-18</v>
+      <c r="F22">
+        <f>编码规则数据!$E$12</f>
       </c>
       <c r="G22" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="H22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I22" t="s">
+        <v>91</v>
+      </c>
+      <c r="J22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" t="s" s="48">
+        <v>106</v>
+      </c>
+      <c r="E24" t="s" s="49">
+        <v>107</v>
+      </c>
+      <c r="F24" t="s" s="50">
+        <v>108</v>
+      </c>
+      <c r="G24" t="s" s="51">
+        <v>109</v>
+      </c>
+      <c r="H24" t="s">
+        <v>110</v>
+      </c>
+      <c r="I24" t="s">
+        <v>111</v>
+      </c>
+      <c r="J24" t="s">
+        <v>112</v>
+      </c>
+      <c r="K24" t="s">
+        <v>113</v>
+      </c>
+      <c r="L24" t="s">
+        <v>114</v>
+      </c>
+      <c r="M24" t="s">
+        <v>115</v>
+      </c>
+      <c r="N24" t="s">
+        <v>116</v>
+      </c>
+      <c r="O24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="E25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F25">
+        <f>编码规则数据!$E$18</f>
+      </c>
+      <c r="G25" t="s">
+        <v>91</v>
+      </c>
+      <c r="H25" t="s">
+        <v>119</v>
+      </c>
+      <c r="I25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="E26" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26">
+        <f>编码规则数据!$E$18</f>
+      </c>
+      <c r="G26" t="s">
+        <v>121</v>
+      </c>
+      <c r="H26" t="s">
+        <v>122</v>
+      </c>
+      <c r="K26" t="s">
+        <v>123</v>
+      </c>
+      <c r="L26" t="s">
+        <v>91</v>
+      </c>
+      <c r="M26" t="s">
+        <v>124</v>
+      </c>
+      <c r="N26" t="s">
+        <v>125</v>
+      </c>
+      <c r="O26" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="E27" t="s">
+        <v>118</v>
+      </c>
+      <c r="F27">
+        <f>编码规则数据!$E$19</f>
+      </c>
+      <c r="G27" t="s">
+        <v>91</v>
+      </c>
+      <c r="H27" t="s">
+        <v>119</v>
+      </c>
+      <c r="I27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="E28" t="s">
+        <v>118</v>
+      </c>
+      <c r="F28">
+        <f>编码规则数据!$E$19</f>
+      </c>
+      <c r="G28" t="s">
+        <v>121</v>
+      </c>
+      <c r="H28" t="s">
+        <v>122</v>
+      </c>
+      <c r="K28" t="s">
+        <v>123</v>
+      </c>
+      <c r="L28" t="s">
+        <v>91</v>
+      </c>
+      <c r="M28" t="s">
+        <v>128</v>
+      </c>
+      <c r="N28" t="s">
+        <v>125</v>
+      </c>
+      <c r="O28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="E29" t="s">
+        <v>118</v>
+      </c>
+      <c r="F29">
+        <f>编码规则数据!$E$21</f>
+      </c>
+      <c r="G29" t="s">
+        <v>91</v>
+      </c>
+      <c r="H29" t="s">
+        <v>119</v>
+      </c>
+      <c r="I29" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
-      <c r="E23" t="s">
-        <v>98</v>
-      </c>
-      <c r="F23" t="str">
-        <f>编码规则数据!$E$15</f>
-        <v>hpfm_code_rule_dist-18</v>
-      </c>
-      <c r="G23" t="s">
-        <v>101</v>
-      </c>
-      <c r="H23" t="s">
-        <v>102</v>
-      </c>
-      <c r="K23" t="s">
-        <v>106</v>
-      </c>
-      <c r="L23" t="s">
-        <v>80</v>
-      </c>
-      <c r="M23" t="s">
-        <v>104</v>
+    <row r="30">
+      <c r="E30" t="s">
+        <v>118</v>
+      </c>
+      <c r="F30">
+        <f>编码规则数据!$E$21</f>
+      </c>
+      <c r="G30" t="s">
+        <v>121</v>
+      </c>
+      <c r="H30" t="s">
+        <v>122</v>
+      </c>
+      <c r="K30" t="s">
+        <v>130</v>
+      </c>
+      <c r="L30" t="s">
+        <v>91</v>
+      </c>
+      <c r="M30" t="s">
+        <v>131</v>
+      </c>
+      <c r="N30" t="s">
+        <v>125</v>
+      </c>
+      <c r="O30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="E31" t="s">
+        <v>118</v>
+      </c>
+      <c r="F31">
+        <f>编码规则数据!$E$22</f>
+      </c>
+      <c r="G31" t="s">
+        <v>91</v>
+      </c>
+      <c r="H31" t="s">
+        <v>119</v>
+      </c>
+      <c r="I31" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="E32" t="s">
+        <v>118</v>
+      </c>
+      <c r="F32">
+        <f>编码规则数据!$E$22</f>
+      </c>
+      <c r="G32" t="s">
+        <v>121</v>
+      </c>
+      <c r="H32" t="s">
+        <v>122</v>
+      </c>
+      <c r="K32" t="s">
+        <v>123</v>
+      </c>
+      <c r="L32" t="s">
+        <v>91</v>
+      </c>
+      <c r="M32" t="s">
+        <v>134</v>
+      </c>
+      <c r="N32" t="s">
+        <v>125</v>
+      </c>
+      <c r="O32" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="E33" t="s">
+        <v>118</v>
+      </c>
+      <c r="F33">
+        <f>编码规则数据!$E$20</f>
+      </c>
+      <c r="G33" t="s">
+        <v>91</v>
+      </c>
+      <c r="H33" t="s">
+        <v>119</v>
+      </c>
+      <c r="I33" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="E34" t="s">
+        <v>118</v>
+      </c>
+      <c r="F34">
+        <f>编码规则数据!$E$20</f>
+      </c>
+      <c r="G34" t="s">
+        <v>121</v>
+      </c>
+      <c r="H34" t="s">
+        <v>122</v>
+      </c>
+      <c r="K34" t="s">
+        <v>123</v>
+      </c>
+      <c r="L34" t="s">
+        <v>91</v>
+      </c>
+      <c r="M34" t="s">
+        <v>137</v>
+      </c>
+      <c r="N34" t="s">
+        <v>125</v>
+      </c>
+      <c r="O34" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="E35" t="s">
+        <v>118</v>
+      </c>
+      <c r="F35">
+        <f>编码规则数据!$E$16</f>
+      </c>
+      <c r="G35" t="s">
+        <v>91</v>
+      </c>
+      <c r="H35" t="s">
+        <v>119</v>
+      </c>
+      <c r="I35" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="E36" t="s">
+        <v>118</v>
+      </c>
+      <c r="F36">
+        <f>编码规则数据!$E$16</f>
+      </c>
+      <c r="G36" t="s">
+        <v>121</v>
+      </c>
+      <c r="H36" t="s">
+        <v>122</v>
+      </c>
+      <c r="K36" t="s">
+        <v>123</v>
+      </c>
+      <c r="L36" t="s">
+        <v>91</v>
+      </c>
+      <c r="M36" t="s">
+        <v>91</v>
+      </c>
+      <c r="N36" t="s">
+        <v>125</v>
+      </c>
+      <c r="O36" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="E37" t="s">
+        <v>118</v>
+      </c>
+      <c r="F37">
+        <f>编码规则数据!$E$17</f>
+      </c>
+      <c r="G37" t="s">
+        <v>91</v>
+      </c>
+      <c r="H37" t="s">
+        <v>122</v>
+      </c>
+      <c r="K37" t="s">
+        <v>141</v>
+      </c>
+      <c r="L37" t="s">
+        <v>91</v>
+      </c>
+      <c r="M37" t="s">
+        <v>91</v>
+      </c>
+      <c r="N37" t="s">
+        <v>125</v>
+      </c>
+      <c r="O37" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-code-rule.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-code-rule.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="144">
   <si>
     <r>
       <rPr>
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-05-29</t>
+    <t>2020-07-06</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2040,6 +2040,9 @@
     <t>0</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>hpfm_code_rule-9</t>
   </si>
   <si>
@@ -2118,9 +2121,6 @@
     <t>CO00000021</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>CD + 8位流水</t>
   </si>
   <si>
@@ -2199,6 +2199,9 @@
     <t>reset_date(DATE)</t>
   </si>
   <si>
+    <t>encrypted_flag</t>
+  </si>
+  <si>
     <t>*</t>
   </si>
   <si>
@@ -2217,31 +2220,31 @@
     <t>8</t>
   </si>
   <si>
-    <t>601</t>
+    <t>600</t>
   </si>
   <si>
     <t>NEVER</t>
   </si>
   <si>
-    <t>2020-05-15 00:00:00.0</t>
+    <t>2020-04-30 00:00:00.0</t>
   </si>
   <si>
     <t>BG</t>
   </si>
   <si>
-    <t>1900</t>
-  </si>
-  <si>
-    <t>2020-04-03 00:00:00.0</t>
+    <t>2200</t>
+  </si>
+  <si>
+    <t>2020-05-25 00:00:00.0</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>15400</t>
-  </si>
-  <si>
-    <t>2020-04-30 00:00:00.0</t>
+    <t>15500</t>
+  </si>
+  <si>
+    <t>2020-06-07 00:00:00.0</t>
   </si>
   <si>
     <t>UN</t>
@@ -3308,7 +3311,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3387,16 +3390,19 @@
       <c r="I8" t="s">
         <v>64</v>
       </c>
+      <c r="J8" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H9" t="s">
         <v>63</v>
@@ -3407,13 +3413,13 @@
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H10" t="s">
         <v>63</v>
@@ -3424,13 +3430,13 @@
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H11" t="s">
         <v>63</v>
@@ -3441,13 +3447,13 @@
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s">
         <v>63</v>
@@ -3458,13 +3464,13 @@
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H13" t="s">
         <v>63</v>
@@ -3481,28 +3487,28 @@
         <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D15" t="s" s="43">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E15" t="s" s="44">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F15" t="s" s="45">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G15" t="s" s="46">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H15" t="s" s="47">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K15" t="s">
         <v>59</v>
@@ -3510,22 +3516,22 @@
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F16">
         <f>编码规则数据!$E$8</f>
       </c>
       <c r="G16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I16" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="J16" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="K16" t="s">
         <v>92</v>
@@ -3545,10 +3551,10 @@
         <v>94</v>
       </c>
       <c r="I17" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="J17" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="K17" t="s">
         <v>95</v>
@@ -3568,10 +3574,10 @@
         <v>97</v>
       </c>
       <c r="I18" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="J18" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="K18" t="s">
         <v>98</v>
@@ -3591,10 +3597,10 @@
         <v>97</v>
       </c>
       <c r="I19" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="J19" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="K19" t="s">
         <v>100</v>
@@ -3614,10 +3620,10 @@
         <v>97</v>
       </c>
       <c r="I20" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="J20" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21">
@@ -3634,10 +3640,10 @@
         <v>97</v>
       </c>
       <c r="I21" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="J21" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="K21" t="s">
         <v>103</v>
@@ -3657,10 +3663,10 @@
         <v>97</v>
       </c>
       <c r="I22" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="J22" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24">
@@ -3709,310 +3715,352 @@
       <c r="O24" t="s">
         <v>117</v>
       </c>
+      <c r="P24" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="25">
       <c r="E25" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F25">
         <f>编码规则数据!$E$18</f>
       </c>
       <c r="G25" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="H25" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I25" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="P25" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="26">
       <c r="E26" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F26">
         <f>编码规则数据!$E$18</f>
       </c>
       <c r="G26" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K26" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L26" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="M26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N26" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O26" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="P26" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="27">
       <c r="E27" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F27">
         <f>编码规则数据!$E$19</f>
       </c>
       <c r="G27" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="H27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I27" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="P27" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="28">
       <c r="E28" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F28">
         <f>编码规则数据!$E$19</f>
       </c>
       <c r="G28" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H28" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L28" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="M28" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O28" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="P28" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="29">
       <c r="E29" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F29">
         <f>编码规则数据!$E$21</f>
       </c>
       <c r="G29" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="H29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I29" t="s">
         <v>63</v>
       </c>
+      <c r="P29" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="30">
       <c r="E30" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F30">
         <f>编码规则数据!$E$21</f>
       </c>
       <c r="G30" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H30" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K30" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L30" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="M30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N30" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O30" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="P30" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="31">
       <c r="E31" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F31">
         <f>编码规则数据!$E$22</f>
       </c>
       <c r="G31" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="H31" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I31" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="P31" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F32">
         <f>编码规则数据!$E$22</f>
       </c>
       <c r="G32" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H32" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K32" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L32" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="M32" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N32" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O32" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="P32" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F33">
         <f>编码规则数据!$E$20</f>
       </c>
       <c r="G33" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="H33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I33" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="P33" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F34">
         <f>编码规则数据!$E$20</f>
       </c>
       <c r="G34" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H34" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L34" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="M34" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N34" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O34" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="P34" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F35">
         <f>编码规则数据!$E$16</f>
       </c>
       <c r="G35" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="H35" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I35" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="P35" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F36">
         <f>编码规则数据!$E$16</f>
       </c>
       <c r="G36" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H36" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K36" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L36" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="M36" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="N36" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O36" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="P36" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F37">
         <f>编码规则数据!$E$17</f>
       </c>
       <c r="G37" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="H37" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K37" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L37" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="M37" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="N37" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O37" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="P37" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-code-rule.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-code-rule.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="147">
   <si>
     <r>
       <rPr>
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-07-06</t>
+    <t>2020-09-11</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2013,13 +2013,19 @@
     <t>#rule_code</t>
   </si>
   <si>
-    <t>rule_name</t>
+    <t>rule_name:zh_CN</t>
+  </si>
+  <si>
+    <t>rule_name:en_US</t>
   </si>
   <si>
     <t>rule_level</t>
   </si>
   <si>
-    <t>#tenant_id</t>
+    <t>tenant_id:zh_CN</t>
+  </si>
+  <si>
+    <t>tenant_id:en_US</t>
   </si>
   <si>
     <t>description</t>
@@ -2112,6 +2118,9 @@
     <t>enabled_flag</t>
   </si>
   <si>
+    <t>tenant_id</t>
+  </si>
+  <si>
     <t>hpfm_code_rule_dist-16</t>
   </si>
   <si>
@@ -2226,7 +2235,7 @@
     <t>NEVER</t>
   </si>
   <si>
-    <t>2020-04-30 00:00:00.0</t>
+    <t>2020-04-29 00:00:00.0</t>
   </si>
   <si>
     <t>BG</t>
@@ -2235,7 +2244,7 @@
     <t>2200</t>
   </si>
   <si>
-    <t>2020-05-25 00:00:00.0</t>
+    <t>2020-05-24 00:00:00.0</t>
   </si>
   <si>
     <t>5</t>
@@ -2244,7 +2253,7 @@
     <t>15500</t>
   </si>
   <si>
-    <t>2020-06-07 00:00:00.0</t>
+    <t>2020-06-06 00:00:00.0</t>
   </si>
   <si>
     <t>UN</t>
@@ -2253,28 +2262,28 @@
     <t>1700</t>
   </si>
   <si>
+    <t>2020-03-23 00:00:00.0</t>
+  </si>
+  <si>
+    <t>PO</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
     <t>2020-03-24 00:00:00.0</t>
   </si>
   <si>
-    <t>PO</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>2020-03-25 00:00:00.0</t>
-  </si>
-  <si>
     <t>CD</t>
   </si>
   <si>
-    <t>2020-02-03 00:00:00.0</t>
+    <t>2020-02-02 00:00:00.0</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>2020-04-27 00:00:00.0</t>
+    <t>2020-04-26 00:00:00.0</t>
   </si>
 </sst>
 </file>
@@ -2282,7 +2291,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="38">
+  <fonts count="39">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2444,6 +2453,11 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -2639,7 +2653,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2726,6 +2740,7 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3311,7 +3326,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3367,116 +3382,158 @@
       <c r="H7" t="s">
         <v>57</v>
       </c>
-      <c r="I7" t="s" s="42">
+      <c r="I7" t="s">
         <v>58</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" t="s" s="42">
         <v>59</v>
+      </c>
+      <c r="K7" t="s" s="43">
+        <v>60</v>
+      </c>
+      <c r="L7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J8" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="K8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H9" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="I9" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="J9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H10" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="I10" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="J10" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H11" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="J11" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="I12" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="J12" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H13" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="I13" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="J13" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="15">
@@ -3487,186 +3544,210 @@
         <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" t="s" s="43">
-        <v>82</v>
-      </c>
-      <c r="E15" t="s" s="44">
         <v>83</v>
       </c>
-      <c r="F15" t="s" s="45">
+      <c r="D15" t="s" s="44">
         <v>84</v>
       </c>
-      <c r="G15" t="s" s="46">
+      <c r="E15" t="s" s="45">
         <v>85</v>
       </c>
-      <c r="H15" t="s" s="47">
+      <c r="F15" t="s" s="46">
         <v>86</v>
       </c>
+      <c r="G15" t="s" s="47">
+        <v>87</v>
+      </c>
+      <c r="H15" t="s" s="48">
+        <v>88</v>
+      </c>
       <c r="I15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J15" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K15" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="L15" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F16">
         <f>编码规则数据!$E$8</f>
       </c>
       <c r="G16" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H16" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K16" t="s">
-        <v>92</v>
+        <v>95</v>
+      </c>
+      <c r="L16" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F17">
         <f>编码规则数据!$E$8</f>
       </c>
       <c r="G17" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H17" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I17" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J17" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K17" t="s">
-        <v>95</v>
+        <v>98</v>
+      </c>
+      <c r="L17" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F18">
         <f>编码规则数据!$E$8</f>
       </c>
       <c r="G18" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H18" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K18" t="s">
-        <v>98</v>
+        <v>101</v>
+      </c>
+      <c r="L18" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="19">
       <c r="E19" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F19">
         <f>编码规则数据!$E$9</f>
       </c>
       <c r="G19" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H19" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K19" t="s">
-        <v>100</v>
+        <v>103</v>
+      </c>
+      <c r="L19" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="20">
       <c r="E20" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F20">
         <f>编码规则数据!$E$13</f>
       </c>
       <c r="G20" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H20" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J20" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="L20" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="21">
       <c r="E21" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F21">
         <f>编码规则数据!$E$10</f>
       </c>
       <c r="G21" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H21" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K21" t="s">
-        <v>103</v>
+        <v>106</v>
+      </c>
+      <c r="L21" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="22">
       <c r="E22" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F22">
         <f>编码规则数据!$E$12</f>
       </c>
       <c r="G22" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H22" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I22" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J22" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="L22" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="24">
@@ -3677,390 +3758,432 @@
         <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>105</v>
-      </c>
-      <c r="D24" t="s" s="48">
-        <v>106</v>
-      </c>
-      <c r="E24" t="s" s="49">
-        <v>107</v>
-      </c>
-      <c r="F24" t="s" s="50">
         <v>108</v>
       </c>
-      <c r="G24" t="s" s="51">
+      <c r="D24" t="s" s="49">
         <v>109</v>
       </c>
+      <c r="E24" t="s" s="50">
+        <v>110</v>
+      </c>
+      <c r="F24" t="s" s="51">
+        <v>111</v>
+      </c>
+      <c r="G24" t="s" s="52">
+        <v>112</v>
+      </c>
       <c r="H24" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I24" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="J24" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K24" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="L24" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M24" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="N24" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="O24" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="P24" t="s">
-        <v>118</v>
+        <v>121</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="25">
       <c r="E25" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F25">
         <f>编码规则数据!$E$18</f>
       </c>
       <c r="G25" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H25" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I25" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="P25" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="26">
       <c r="E26" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F26">
         <f>编码规则数据!$E$18</f>
       </c>
       <c r="G26" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H26" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K26" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L26" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M26" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="N26" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="O26" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="P26" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="27">
       <c r="E27" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F27">
         <f>编码规则数据!$E$19</f>
       </c>
       <c r="G27" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H27" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I27" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="P27" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="28">
       <c r="E28" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F28">
         <f>编码规则数据!$E$19</f>
       </c>
       <c r="G28" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H28" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K28" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M28" t="s">
+        <v>132</v>
+      </c>
+      <c r="N28" t="s">
         <v>129</v>
       </c>
-      <c r="N28" t="s">
-        <v>126</v>
-      </c>
       <c r="O28" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="P28" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="29">
       <c r="E29" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F29">
         <f>编码规则数据!$E$21</f>
       </c>
       <c r="G29" t="s">
+        <v>67</v>
+      </c>
+      <c r="H29" t="s">
+        <v>123</v>
+      </c>
+      <c r="I29" t="s">
         <v>65</v>
       </c>
-      <c r="H29" t="s">
-        <v>120</v>
-      </c>
-      <c r="I29" t="s">
-        <v>63</v>
-      </c>
       <c r="P29" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="30">
       <c r="E30" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F30">
         <f>编码规则数据!$E$21</f>
       </c>
       <c r="G30" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H30" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="L30" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M30" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="N30" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="O30" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="P30" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="31">
       <c r="E31" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F31">
         <f>编码规则数据!$E$22</f>
       </c>
       <c r="G31" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H31" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I31" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="P31" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F32">
         <f>编码规则数据!$E$22</f>
       </c>
       <c r="G32" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H32" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K32" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L32" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M32" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N32" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="O32" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="P32" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F33">
         <f>编码规则数据!$E$20</f>
       </c>
       <c r="G33" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H33" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I33" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="P33" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F34">
         <f>编码规则数据!$E$20</f>
       </c>
       <c r="G34" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H34" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K34" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L34" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M34" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="N34" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="O34" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="P34" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F35">
         <f>编码规则数据!$E$16</f>
       </c>
       <c r="G35" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H35" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I35" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="P35" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F36">
         <f>编码规则数据!$E$16</f>
       </c>
       <c r="G36" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H36" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K36" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L36" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M36" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N36" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="O36" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="P36" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F37">
         <f>编码规则数据!$E$17</f>
       </c>
       <c r="G37" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H37" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K37" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="L37" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M37" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N37" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="O37" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P37" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-code-rule.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-code-rule.xlsx
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-09-11</t>
+    <t>2020-09-22</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2022,10 +2022,10 @@
     <t>rule_level</t>
   </si>
   <si>
-    <t>tenant_id:zh_CN</t>
-  </si>
-  <si>
-    <t>tenant_id:en_US</t>
+    <t>#tenant_id:zh_CN</t>
+  </si>
+  <si>
+    <t>#tenant_id:en_US</t>
   </si>
   <si>
     <t>description</t>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-code-rule.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-code-rule.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="155">
   <si>
     <r>
       <rPr>
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-09-22</t>
+    <t>2021-02-02</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2031,6 +2031,12 @@
     <t>description</t>
   </si>
   <si>
+    <t>last_update_date</t>
+  </si>
+  <si>
+    <t>last_updated_by</t>
+  </si>
+  <si>
     <t>hpfm_code_rule-8</t>
   </si>
   <si>
@@ -2046,18 +2052,27 @@
     <t>0</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>124568523237695491</t>
+  </si>
+  <si>
+    <t>hpfm_code_rule-9</t>
+  </si>
+  <si>
+    <t>HPFM.GROUP</t>
+  </si>
+  <si>
+    <t>集团编码</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>hpfm_code_rule-9</t>
-  </si>
-  <si>
-    <t>HPFM.GROUP</t>
-  </si>
-  <si>
-    <t>集团编码</t>
-  </si>
-  <si>
     <t>hpfm_code_rule-10</t>
   </si>
   <si>
@@ -2133,16 +2148,25 @@
     <t>CD + 8位流水</t>
   </si>
   <si>
+    <t>-1</t>
+  </si>
+  <si>
     <t>hpfm_code_rule_dist-17</t>
   </si>
   <si>
     <t>CUSTOM</t>
   </si>
   <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>hpfm_code_rule_dist-18</t>
+  </si>
+  <si>
     <t>测试自定义</t>
   </si>
   <si>
-    <t>hpfm_code_rule_dist-18</t>
+    <t>hpfm_code_rule_dist-19</t>
   </si>
   <si>
     <t>GLOBAL</t>
@@ -2151,22 +2175,22 @@
     <t>CO + 8位流水</t>
   </si>
   <si>
-    <t>hpfm_code_rule_dist-19</t>
+    <t>hpfm_code_rule_dist-20</t>
   </si>
   <si>
     <t>BG + 8位流水</t>
   </si>
   <si>
-    <t>hpfm_code_rule_dist-20</t>
-  </si>
-  <si>
     <t>hpfm_code_rule_dist-21</t>
   </si>
   <si>
+    <t>hpfm_code_rule_dist-22</t>
+  </si>
+  <si>
     <t>T + 5位流水</t>
   </si>
   <si>
-    <t>hpfm_code_rule_dist-22</t>
+    <t>hpfm_code_rule_dist-23</t>
   </si>
   <si>
     <t>编码规则明细</t>
@@ -2229,22 +2253,22 @@
     <t>8</t>
   </si>
   <si>
-    <t>600</t>
+    <t>700</t>
   </si>
   <si>
     <t>NEVER</t>
   </si>
   <si>
-    <t>2020-04-29 00:00:00.0</t>
+    <t>2020-12-09 19:17:13.0</t>
   </si>
   <si>
     <t>BG</t>
   </si>
   <si>
-    <t>2200</t>
-  </si>
-  <si>
-    <t>2020-05-24 00:00:00.0</t>
+    <t>2300</t>
+  </si>
+  <si>
+    <t>2020-11-14 13:21:29.0</t>
   </si>
   <si>
     <t>5</t>
@@ -3326,7 +3350,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3394,146 +3418,188 @@
       <c r="L7" t="s">
         <v>61</v>
       </c>
+      <c r="M7" t="s">
+        <v>62</v>
+      </c>
+      <c r="N7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L8" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="M8" t="s">
+        <v>70</v>
+      </c>
+      <c r="N8" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" t="s">
+        <v>68</v>
+      </c>
+      <c r="M9" t="s">
         <v>70</v>
       </c>
-      <c r="H9" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" t="s">
-        <v>65</v>
-      </c>
-      <c r="J9" t="s">
-        <v>66</v>
-      </c>
-      <c r="K9" t="s">
-        <v>66</v>
+      <c r="N9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F10" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H10" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K10" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="M10" t="s">
+        <v>70</v>
+      </c>
+      <c r="N10" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" t="s">
+        <v>68</v>
+      </c>
+      <c r="M11" t="s">
+        <v>70</v>
+      </c>
+      <c r="N11" t="s">
         <v>75</v>
-      </c>
-      <c r="G11" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" t="s">
-        <v>76</v>
-      </c>
-      <c r="I11" t="s">
-        <v>65</v>
-      </c>
-      <c r="J11" t="s">
-        <v>66</v>
-      </c>
-      <c r="K11" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F12" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G12" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H12" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="I12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K12" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="M12" t="s">
+        <v>70</v>
+      </c>
+      <c r="N12" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F13" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G13" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H13" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K13" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="M13" t="s">
+        <v>70</v>
+      </c>
+      <c r="N13" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="15">
@@ -3544,646 +3610,807 @@
         <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D15" t="s" s="44">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E15" t="s" s="45">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F15" t="s" s="46">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G15" t="s" s="47">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H15" t="s" s="48">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="I15" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="J15" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="K15" t="s">
         <v>61</v>
       </c>
       <c r="L15" t="s">
-        <v>91</v>
+        <v>96</v>
+      </c>
+      <c r="M15" t="s">
+        <v>62</v>
+      </c>
+      <c r="N15" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F16">
         <f>编码规则数据!$E$8</f>
       </c>
       <c r="G16" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H16" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="I16" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="J16" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="K16" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="L16" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="M16" t="s">
+        <v>70</v>
+      </c>
+      <c r="N16" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F17">
         <f>编码规则数据!$E$8</f>
       </c>
       <c r="G17" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="H17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J17" t="s">
-        <v>67</v>
-      </c>
-      <c r="K17" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="L17" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="M17" t="s">
+        <v>70</v>
+      </c>
+      <c r="N17" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F18">
         <f>编码规则数据!$E$8</f>
       </c>
       <c r="G18" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H18" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I18" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="J18" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="K18" t="s">
+        <v>106</v>
+      </c>
+      <c r="L18" t="s">
+        <v>68</v>
+      </c>
+      <c r="M18" t="s">
+        <v>70</v>
+      </c>
+      <c r="N18" t="s">
         <v>101</v>
-      </c>
-      <c r="L18" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="19">
       <c r="E19" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F19">
-        <f>编码规则数据!$E$9</f>
+        <f>编码规则数据!$E$8</f>
       </c>
       <c r="G19" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="H19" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="I19" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="J19" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="K19" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="L19" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="M19" t="s">
+        <v>70</v>
+      </c>
+      <c r="N19" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="20">
       <c r="E20" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F20">
-        <f>编码规则数据!$E$13</f>
+        <f>编码规则数据!$E$9</f>
       </c>
       <c r="G20" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="H20" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="I20" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="J20" t="s">
-        <v>67</v>
+        <v>75</v>
+      </c>
+      <c r="K20" t="s">
+        <v>111</v>
       </c>
       <c r="L20" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="M20" t="s">
+        <v>70</v>
+      </c>
+      <c r="N20" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="21">
       <c r="E21" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F21">
-        <f>编码规则数据!$E$10</f>
+        <f>编码规则数据!$E$13</f>
       </c>
       <c r="G21" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="H21" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="I21" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="J21" t="s">
-        <v>67</v>
-      </c>
-      <c r="K21" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="L21" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="M21" t="s">
+        <v>70</v>
+      </c>
+      <c r="N21" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="22">
       <c r="E22" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F22">
+        <f>编码规则数据!$E$10</f>
+      </c>
+      <c r="G22" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22" t="s">
+        <v>108</v>
+      </c>
+      <c r="I22" t="s">
+        <v>75</v>
+      </c>
+      <c r="J22" t="s">
+        <v>75</v>
+      </c>
+      <c r="K22" t="s">
+        <v>114</v>
+      </c>
+      <c r="L22" t="s">
+        <v>68</v>
+      </c>
+      <c r="M22" t="s">
+        <v>70</v>
+      </c>
+      <c r="N22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="E23" t="s">
+        <v>115</v>
+      </c>
+      <c r="F23">
         <f>编码规则数据!$E$12</f>
       </c>
-      <c r="G22" t="s">
-        <v>100</v>
-      </c>
-      <c r="H22" t="s">
-        <v>100</v>
-      </c>
-      <c r="I22" t="s">
-        <v>67</v>
-      </c>
-      <c r="J22" t="s">
-        <v>67</v>
-      </c>
-      <c r="L22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
+      <c r="G23" t="s">
+        <v>108</v>
+      </c>
+      <c r="H23" t="s">
+        <v>108</v>
+      </c>
+      <c r="I23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J23" t="s">
+        <v>75</v>
+      </c>
+      <c r="L23" t="s">
+        <v>68</v>
+      </c>
+      <c r="M23" t="s">
+        <v>70</v>
+      </c>
+      <c r="N23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
         <v>50</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>51</v>
       </c>
-      <c r="C24" t="s">
-        <v>108</v>
-      </c>
-      <c r="D24" t="s" s="49">
-        <v>109</v>
-      </c>
-      <c r="E24" t="s" s="50">
-        <v>110</v>
-      </c>
-      <c r="F24" t="s" s="51">
-        <v>111</v>
-      </c>
-      <c r="G24" t="s" s="52">
-        <v>112</v>
-      </c>
-      <c r="H24" t="s">
-        <v>113</v>
-      </c>
-      <c r="I24" t="s">
-        <v>114</v>
-      </c>
-      <c r="J24" t="s">
-        <v>115</v>
-      </c>
-      <c r="K24" t="s">
+      <c r="C25" t="s">
         <v>116</v>
       </c>
-      <c r="L24" t="s">
+      <c r="D25" t="s" s="49">
         <v>117</v>
       </c>
-      <c r="M24" t="s">
+      <c r="E25" t="s" s="50">
         <v>118</v>
       </c>
-      <c r="N24" t="s">
+      <c r="F25" t="s" s="51">
         <v>119</v>
       </c>
-      <c r="O24" t="s">
+      <c r="G25" t="s" s="52">
         <v>120</v>
       </c>
-      <c r="P24" t="s">
+      <c r="H25" t="s">
         <v>121</v>
       </c>
-      <c r="Q24" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="E25" t="s">
+      <c r="I25" t="s">
         <v>122</v>
       </c>
-      <c r="F25">
-        <f>编码规则数据!$E$18</f>
-      </c>
-      <c r="G25" t="s">
-        <v>67</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="J25" t="s">
         <v>123</v>
       </c>
-      <c r="I25" t="s">
+      <c r="K25" t="s">
         <v>124</v>
       </c>
+      <c r="L25" t="s">
+        <v>125</v>
+      </c>
+      <c r="M25" t="s">
+        <v>126</v>
+      </c>
+      <c r="N25" t="s">
+        <v>127</v>
+      </c>
+      <c r="O25" t="s">
+        <v>128</v>
+      </c>
       <c r="P25" t="s">
-        <v>66</v>
+        <v>129</v>
       </c>
       <c r="Q25" t="s">
-        <v>66</v>
+        <v>96</v>
+      </c>
+      <c r="R25" t="s">
+        <v>62</v>
+      </c>
+      <c r="S25" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="26">
       <c r="E26" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="F26">
-        <f>编码规则数据!$E$18</f>
+        <f>编码规则数据!$E$19</f>
       </c>
       <c r="G26" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="H26" t="s">
-        <v>126</v>
-      </c>
-      <c r="K26" t="s">
-        <v>127</v>
-      </c>
-      <c r="L26" t="s">
-        <v>67</v>
-      </c>
-      <c r="M26" t="s">
-        <v>128</v>
-      </c>
-      <c r="N26" t="s">
-        <v>129</v>
-      </c>
-      <c r="O26" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="I26" t="s">
+        <v>132</v>
       </c>
       <c r="P26" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q26" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="R26" t="s">
+        <v>70</v>
+      </c>
+      <c r="S26" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="27">
       <c r="E27" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="F27">
         <f>编码规则数据!$E$19</f>
       </c>
       <c r="G27" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="H27" t="s">
-        <v>123</v>
-      </c>
-      <c r="I27" t="s">
-        <v>131</v>
+        <v>134</v>
+      </c>
+      <c r="K27" t="s">
+        <v>135</v>
+      </c>
+      <c r="L27" t="s">
+        <v>75</v>
+      </c>
+      <c r="M27" t="s">
+        <v>136</v>
+      </c>
+      <c r="N27" t="s">
+        <v>137</v>
+      </c>
+      <c r="O27" t="s">
+        <v>138</v>
       </c>
       <c r="P27" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q27" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="R27" t="s">
+        <v>70</v>
+      </c>
+      <c r="S27" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="28">
       <c r="E28" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="F28">
-        <f>编码规则数据!$E$19</f>
+        <f>编码规则数据!$E$20</f>
       </c>
       <c r="G28" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="H28" t="s">
-        <v>126</v>
-      </c>
-      <c r="K28" t="s">
-        <v>127</v>
-      </c>
-      <c r="L28" t="s">
-        <v>67</v>
-      </c>
-      <c r="M28" t="s">
-        <v>132</v>
-      </c>
-      <c r="N28" t="s">
-        <v>129</v>
-      </c>
-      <c r="O28" t="s">
-        <v>133</v>
+        <v>131</v>
+      </c>
+      <c r="I28" t="s">
+        <v>139</v>
       </c>
       <c r="P28" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q28" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="R28" t="s">
+        <v>70</v>
+      </c>
+      <c r="S28" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="29">
       <c r="E29" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="F29">
-        <f>编码规则数据!$E$21</f>
+        <f>编码规则数据!$E$20</f>
       </c>
       <c r="G29" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="H29" t="s">
-        <v>123</v>
-      </c>
-      <c r="I29" t="s">
-        <v>65</v>
+        <v>134</v>
+      </c>
+      <c r="K29" t="s">
+        <v>135</v>
+      </c>
+      <c r="L29" t="s">
+        <v>75</v>
+      </c>
+      <c r="M29" t="s">
+        <v>140</v>
+      </c>
+      <c r="N29" t="s">
+        <v>137</v>
+      </c>
+      <c r="O29" t="s">
+        <v>141</v>
       </c>
       <c r="P29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q29" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="R29" t="s">
+        <v>70</v>
+      </c>
+      <c r="S29" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="30">
       <c r="E30" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="F30">
-        <f>编码规则数据!$E$21</f>
+        <f>编码规则数据!$E$22</f>
       </c>
       <c r="G30" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="H30" t="s">
-        <v>126</v>
-      </c>
-      <c r="K30" t="s">
-        <v>134</v>
-      </c>
-      <c r="L30" t="s">
+        <v>131</v>
+      </c>
+      <c r="I30" t="s">
         <v>67</v>
       </c>
-      <c r="M30" t="s">
-        <v>135</v>
-      </c>
-      <c r="N30" t="s">
-        <v>129</v>
-      </c>
-      <c r="O30" t="s">
-        <v>136</v>
-      </c>
       <c r="P30" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q30" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="R30" t="s">
+        <v>70</v>
+      </c>
+      <c r="S30" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="31">
       <c r="E31" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="F31">
         <f>编码规则数据!$E$22</f>
       </c>
       <c r="G31" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="H31" t="s">
-        <v>123</v>
-      </c>
-      <c r="I31" t="s">
+        <v>134</v>
+      </c>
+      <c r="K31" t="s">
+        <v>142</v>
+      </c>
+      <c r="L31" t="s">
+        <v>75</v>
+      </c>
+      <c r="M31" t="s">
+        <v>143</v>
+      </c>
+      <c r="N31" t="s">
         <v>137</v>
       </c>
+      <c r="O31" t="s">
+        <v>144</v>
+      </c>
       <c r="P31" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q31" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="R31" t="s">
+        <v>70</v>
+      </c>
+      <c r="S31" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="F32">
-        <f>编码规则数据!$E$22</f>
+        <f>编码规则数据!$E$23</f>
       </c>
       <c r="G32" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="H32" t="s">
-        <v>126</v>
-      </c>
-      <c r="K32" t="s">
-        <v>127</v>
-      </c>
-      <c r="L32" t="s">
-        <v>67</v>
-      </c>
-      <c r="M32" t="s">
-        <v>138</v>
-      </c>
-      <c r="N32" t="s">
-        <v>129</v>
-      </c>
-      <c r="O32" t="s">
-        <v>139</v>
+        <v>131</v>
+      </c>
+      <c r="I32" t="s">
+        <v>145</v>
       </c>
       <c r="P32" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q32" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="R32" t="s">
+        <v>70</v>
+      </c>
+      <c r="S32" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="F33">
-        <f>编码规则数据!$E$20</f>
+        <f>编码规则数据!$E$23</f>
       </c>
       <c r="G33" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="H33" t="s">
-        <v>123</v>
-      </c>
-      <c r="I33" t="s">
-        <v>140</v>
+        <v>134</v>
+      </c>
+      <c r="K33" t="s">
+        <v>135</v>
+      </c>
+      <c r="L33" t="s">
+        <v>75</v>
+      </c>
+      <c r="M33" t="s">
+        <v>146</v>
+      </c>
+      <c r="N33" t="s">
+        <v>137</v>
+      </c>
+      <c r="O33" t="s">
+        <v>147</v>
       </c>
       <c r="P33" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q33" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="R33" t="s">
+        <v>70</v>
+      </c>
+      <c r="S33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="F34">
-        <f>编码规则数据!$E$20</f>
+        <f>编码规则数据!$E$21</f>
       </c>
       <c r="G34" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="H34" t="s">
-        <v>126</v>
-      </c>
-      <c r="K34" t="s">
-        <v>127</v>
-      </c>
-      <c r="L34" t="s">
-        <v>67</v>
-      </c>
-      <c r="M34" t="s">
-        <v>141</v>
-      </c>
-      <c r="N34" t="s">
-        <v>129</v>
-      </c>
-      <c r="O34" t="s">
-        <v>142</v>
+        <v>131</v>
+      </c>
+      <c r="I34" t="s">
+        <v>148</v>
       </c>
       <c r="P34" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q34" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="R34" t="s">
+        <v>70</v>
+      </c>
+      <c r="S34" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="F35">
-        <f>编码规则数据!$E$16</f>
+        <f>编码规则数据!$E$21</f>
       </c>
       <c r="G35" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="H35" t="s">
-        <v>123</v>
-      </c>
-      <c r="I35" t="s">
-        <v>143</v>
+        <v>134</v>
+      </c>
+      <c r="K35" t="s">
+        <v>135</v>
+      </c>
+      <c r="L35" t="s">
+        <v>75</v>
+      </c>
+      <c r="M35" t="s">
+        <v>149</v>
+      </c>
+      <c r="N35" t="s">
+        <v>137</v>
+      </c>
+      <c r="O35" t="s">
+        <v>150</v>
       </c>
       <c r="P35" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q35" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="R35" t="s">
+        <v>70</v>
+      </c>
+      <c r="S35" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="F36">
         <f>编码规则数据!$E$16</f>
       </c>
       <c r="G36" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="H36" t="s">
-        <v>126</v>
-      </c>
-      <c r="K36" t="s">
-        <v>127</v>
-      </c>
-      <c r="L36" t="s">
-        <v>67</v>
-      </c>
-      <c r="M36" t="s">
-        <v>67</v>
-      </c>
-      <c r="N36" t="s">
-        <v>129</v>
-      </c>
-      <c r="O36" t="s">
-        <v>144</v>
+        <v>131</v>
+      </c>
+      <c r="I36" t="s">
+        <v>151</v>
       </c>
       <c r="P36" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q36" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="R36" t="s">
+        <v>70</v>
+      </c>
+      <c r="S36" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="F37">
-        <f>编码规则数据!$E$17</f>
+        <f>编码规则数据!$E$16</f>
       </c>
       <c r="G37" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="H37" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="K37" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="L37" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="M37" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="N37" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="O37" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="P37" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q37" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="R37" t="s">
+        <v>70</v>
+      </c>
+      <c r="S37" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="E38" t="s">
+        <v>130</v>
+      </c>
+      <c r="F38">
+        <f>编码规则数据!$E$18</f>
+      </c>
+      <c r="G38" t="s">
+        <v>75</v>
+      </c>
+      <c r="H38" t="s">
+        <v>134</v>
+      </c>
+      <c r="K38" t="s">
+        <v>153</v>
+      </c>
+      <c r="L38" t="s">
+        <v>75</v>
+      </c>
+      <c r="M38" t="s">
+        <v>75</v>
+      </c>
+      <c r="N38" t="s">
+        <v>137</v>
+      </c>
+      <c r="O38" t="s">
+        <v>154</v>
+      </c>
+      <c r="P38" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>68</v>
+      </c>
+      <c r="R38" t="s">
+        <v>70</v>
+      </c>
+      <c r="S38" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-code-rule.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-code-rule.xlsx
@@ -21,12 +21,12 @@
     <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
     <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="199">
   <si>
     <r>
       <rPr>
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2021-02-02</t>
+    <t>2021-10-13</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2040,28 +2040,52 @@
     <t>hpfm_code_rule-8</t>
   </si>
   <si>
+    <t>HIAM.DOCUMENT_AUTHORITY</t>
+  </si>
+  <si>
+    <t>单据权限生成数据权限编码</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>hpfm_code_rule-9</t>
+  </si>
+  <si>
     <t>HPFM.COMPANY</t>
   </si>
   <si>
     <t>公司编码</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>now</t>
-  </si>
-  <si>
-    <t>124568523237695491</t>
-  </si>
-  <si>
-    <t>hpfm_code_rule-9</t>
+    <t>Company code</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>hpfm_code_rule-10</t>
+  </si>
+  <si>
+    <t>HPFM.CUSTOMIZE</t>
+  </si>
+  <si>
+    <t>个性化记录编码</t>
+  </si>
+  <si>
+    <t>19893</t>
+  </si>
+  <si>
+    <t>hpfm_code_rule-11</t>
   </si>
   <si>
     <t>HPFM.GROUP</t>
@@ -2070,10 +2094,22 @@
     <t>集团编码</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>hpfm_code_rule-10</t>
+    <t>45</t>
+  </si>
+  <si>
+    <t>hpfm_code_rule-12</t>
+  </si>
+  <si>
+    <t>HPFM.POSITION</t>
+  </si>
+  <si>
+    <t>岗位编码</t>
+  </si>
+  <si>
+    <t>468</t>
+  </si>
+  <si>
+    <t>hpfm_code_rule-13</t>
   </si>
   <si>
     <t>HPFM.TENANT</t>
@@ -2082,16 +2118,10 @@
     <t>租户编码</t>
   </si>
   <si>
-    <t>hpfm_code_rule-11</t>
-  </si>
-  <si>
-    <t>HIAM.DOCUMENT_AUTHORITY</t>
-  </si>
-  <si>
-    <t>单据权限生成数据权限编码</t>
-  </si>
-  <si>
-    <t>hpfm_code_rule-12</t>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>hpfm_code_rule-14</t>
   </si>
   <si>
     <t>HPFM.UNIT</t>
@@ -2100,15 +2130,6 @@
     <t>组织编码</t>
   </si>
   <si>
-    <t>hpfm_code_rule-13</t>
-  </si>
-  <si>
-    <t>HPFM.POSITION</t>
-  </si>
-  <si>
-    <t>岗位编码</t>
-  </si>
-  <si>
     <t>编码规则分配</t>
   </si>
   <si>
@@ -2136,7 +2157,7 @@
     <t>tenant_id</t>
   </si>
   <si>
-    <t>hpfm_code_rule_dist-16</t>
+    <t>hpfm_code_rule_dist-17</t>
   </si>
   <si>
     <t>COM</t>
@@ -2148,10 +2169,10 @@
     <t>CD + 8位流水</t>
   </si>
   <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>hpfm_code_rule_dist-17</t>
+    <t>32618</t>
+  </si>
+  <si>
+    <t>hpfm_code_rule_dist-18</t>
   </si>
   <si>
     <t>CUSTOM</t>
@@ -2160,13 +2181,31 @@
     <t>AAA</t>
   </si>
   <si>
-    <t>hpfm_code_rule_dist-18</t>
+    <t>415</t>
+  </si>
+  <si>
+    <t>hpfm_code_rule_dist-19</t>
+  </si>
+  <si>
+    <t>CCC</t>
+  </si>
+  <si>
+    <t>hpfm_code_rule_dist-20</t>
   </si>
   <si>
     <t>测试自定义</t>
   </si>
   <si>
-    <t>hpfm_code_rule_dist-19</t>
+    <t>hpfm_code_rule_dist-21</t>
+  </si>
+  <si>
+    <t>DEMO</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>hpfm_code_rule_dist-22</t>
   </si>
   <si>
     <t>GLOBAL</t>
@@ -2175,22 +2214,55 @@
     <t>CO + 8位流水</t>
   </si>
   <si>
-    <t>hpfm_code_rule_dist-20</t>
+    <t>hpfm_code_rule_dist-23</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>134354801085124649</t>
+  </si>
+  <si>
+    <t>hpfm_code_rule_dist-24</t>
+  </si>
+  <si>
+    <t>TEST0517</t>
+  </si>
+  <si>
+    <t>v1</t>
+  </si>
+  <si>
+    <t>hpfm_code_rule_dist-25</t>
+  </si>
+  <si>
+    <t>v2</t>
+  </si>
+  <si>
+    <t>hpfm_code_rule_dist-26</t>
+  </si>
+  <si>
+    <t>5013</t>
+  </si>
+  <si>
+    <t>hpfm_code_rule_dist-27</t>
   </si>
   <si>
     <t>BG + 8位流水</t>
   </si>
   <si>
-    <t>hpfm_code_rule_dist-21</t>
-  </si>
-  <si>
-    <t>hpfm_code_rule_dist-22</t>
+    <t>hpfm_code_rule_dist-28</t>
+  </si>
+  <si>
+    <t>hpfm_code_rule_dist-29</t>
   </si>
   <si>
     <t>T + 5位流水</t>
   </si>
   <si>
-    <t>hpfm_code_rule_dist-23</t>
+    <t>5016</t>
+  </si>
+  <si>
+    <t>hpfm_code_rule_dist-30</t>
   </si>
   <si>
     <t>编码规则明细</t>
@@ -2253,22 +2325,22 @@
     <t>8</t>
   </si>
   <si>
-    <t>700</t>
+    <t>35300</t>
   </si>
   <si>
     <t>NEVER</t>
   </si>
   <si>
-    <t>2020-12-09 19:17:13.0</t>
+    <t>2021-08-12 17:22:31.0</t>
   </si>
   <si>
     <t>BG</t>
   </si>
   <si>
-    <t>2300</t>
-  </si>
-  <si>
-    <t>2020-11-14 13:21:29.0</t>
+    <t>2440</t>
+  </si>
+  <si>
+    <t>2021-01-20 19:15:27.0</t>
   </si>
   <si>
     <t>5</t>
@@ -2277,37 +2349,97 @@
     <t>15500</t>
   </si>
   <si>
-    <t>2020-06-06 00:00:00.0</t>
+    <t>2020-06-07 13:14:34.0</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>24100</t>
+  </si>
+  <si>
+    <t>2021-08-18 14:37:31.0</t>
   </si>
   <si>
     <t>UN</t>
   </si>
   <si>
-    <t>1700</t>
-  </si>
-  <si>
-    <t>2020-03-23 00:00:00.0</t>
+    <t>1900</t>
+  </si>
+  <si>
+    <t>2021-08-20 16:54:59.0</t>
   </si>
   <si>
     <t>PO</t>
   </si>
   <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>2020-03-24 00:00:00.0</t>
-  </si>
-  <si>
-    <t>CD</t>
-  </si>
-  <si>
-    <t>2020-02-02 00:00:00.0</t>
+    <t>201</t>
+  </si>
+  <si>
+    <t>2021-08-20 16:55:02.0</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>2020-04-26 00:00:00.0</t>
+    <t>34200</t>
+  </si>
+  <si>
+    <t>2021-08-18 14:51:00.0</t>
+  </si>
+  <si>
+    <t>VARIABLE</t>
+  </si>
+  <si>
+    <t>companyNum</t>
+  </si>
+  <si>
+    <t>131779822856704002</t>
+  </si>
+  <si>
+    <t>DAY</t>
+  </si>
+  <si>
+    <t>2021-03-10 15:57:58.0</t>
+  </si>
+  <si>
+    <t>2097</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>yyyyMMdd</t>
+  </si>
+  <si>
+    <t>yyyy</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2021-06-30 16:16:45.0</t>
+  </si>
+  <si>
+    <t>UUID</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>MONTH</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>159332009760137337</t>
   </si>
 </sst>
 </file>
@@ -3350,7 +3482,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S38"/>
+  <dimension ref="A1:S60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3447,25 +3579,22 @@
       <c r="K8" t="s">
         <v>68</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>69</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>70</v>
-      </c>
-      <c r="N8" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" t="s">
         <v>72</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>73</v>
-      </c>
-      <c r="G9" t="s">
-        <v>74</v>
       </c>
       <c r="H9" t="s">
         <v>74</v>
@@ -3479,8 +3608,11 @@
       <c r="K9" t="s">
         <v>68</v>
       </c>
+      <c r="L9" t="s">
+        <v>75</v>
+      </c>
       <c r="M9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N9" t="s">
         <v>75</v>
@@ -3509,24 +3641,24 @@
         <v>68</v>
       </c>
       <c r="M10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N10" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I11" t="s">
         <v>67</v>
@@ -3538,24 +3670,24 @@
         <v>68</v>
       </c>
       <c r="M11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N11" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I12" t="s">
         <v>67</v>
@@ -3567,24 +3699,24 @@
         <v>68</v>
       </c>
       <c r="M12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N12" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F13" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G13" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H13" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I13" t="s">
         <v>67</v>
@@ -3596,129 +3728,131 @@
         <v>68</v>
       </c>
       <c r="M13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" t="s">
+        <v>94</v>
+      </c>
+      <c r="H14" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" t="s">
+        <v>67</v>
+      </c>
+      <c r="J14" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" t="s">
+        <v>68</v>
+      </c>
+      <c r="M14" t="s">
+        <v>69</v>
+      </c>
+      <c r="N14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
         <v>50</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>51</v>
       </c>
-      <c r="C15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" t="s" s="44">
-        <v>89</v>
-      </c>
-      <c r="E15" t="s" s="45">
-        <v>90</v>
-      </c>
-      <c r="F15" t="s" s="46">
-        <v>91</v>
-      </c>
-      <c r="G15" t="s" s="47">
-        <v>92</v>
-      </c>
-      <c r="H15" t="s" s="48">
-        <v>93</v>
-      </c>
-      <c r="I15" t="s">
-        <v>94</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="C16" t="s">
         <v>95</v>
       </c>
-      <c r="K15" t="s">
+      <c r="D16" t="s" s="44">
+        <v>96</v>
+      </c>
+      <c r="E16" t="s" s="45">
+        <v>97</v>
+      </c>
+      <c r="F16" t="s" s="46">
+        <v>98</v>
+      </c>
+      <c r="G16" t="s" s="47">
+        <v>99</v>
+      </c>
+      <c r="H16" t="s" s="48">
+        <v>100</v>
+      </c>
+      <c r="I16" t="s">
+        <v>101</v>
+      </c>
+      <c r="J16" t="s">
+        <v>102</v>
+      </c>
+      <c r="K16" t="s">
         <v>61</v>
       </c>
-      <c r="L15" t="s">
-        <v>96</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="L16" t="s">
+        <v>103</v>
+      </c>
+      <c r="M16" t="s">
         <v>62</v>
       </c>
-      <c r="N15" t="s">
+      <c r="N16" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="E16" t="s">
-        <v>97</v>
-      </c>
-      <c r="F16">
-        <f>编码规则数据!$E$8</f>
-      </c>
-      <c r="G16" t="s">
-        <v>98</v>
-      </c>
-      <c r="H16" t="s">
-        <v>99</v>
-      </c>
-      <c r="I16" t="s">
-        <v>75</v>
-      </c>
-      <c r="J16" t="s">
-        <v>75</v>
-      </c>
-      <c r="K16" t="s">
-        <v>100</v>
-      </c>
-      <c r="L16" t="s">
-        <v>68</v>
-      </c>
-      <c r="M16" t="s">
-        <v>70</v>
-      </c>
-      <c r="N16" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>102</v>
-      </c>
-      <c r="F17">
-        <f>编码规则数据!$E$8</f>
+        <v>104</v>
+      </c>
+      <c r="F17" t="n">
+        <f>编码规则数据!$E$9</f>
+        <v>0.0</v>
       </c>
       <c r="G17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H17" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I17" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="J17" t="s">
         <v>75</v>
       </c>
+      <c r="K17" t="s">
+        <v>107</v>
+      </c>
       <c r="L17" t="s">
         <v>68</v>
       </c>
       <c r="M17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N17" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>105</v>
-      </c>
-      <c r="F18">
-        <f>编码规则数据!$E$8</f>
+        <v>109</v>
+      </c>
+      <c r="F18" t="n">
+        <f>编码规则数据!$E$9</f>
+        <v>0.0</v>
       </c>
       <c r="G18" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="H18" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="I18" t="s">
         <v>75</v>
@@ -3726,63 +3860,59 @@
       <c r="J18" t="s">
         <v>75</v>
       </c>
-      <c r="K18" t="s">
-        <v>106</v>
-      </c>
       <c r="L18" t="s">
         <v>68</v>
       </c>
       <c r="M18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N18" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19">
       <c r="E19" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19">
-        <f>编码规则数据!$E$8</f>
+        <v>113</v>
+      </c>
+      <c r="F19" t="n">
+        <f>编码规则数据!$E$9</f>
+        <v>0.0</v>
       </c>
       <c r="G19" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="I19" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J19" t="s">
         <v>75</v>
       </c>
-      <c r="K19" t="s">
-        <v>109</v>
-      </c>
       <c r="L19" t="s">
         <v>68</v>
       </c>
       <c r="M19" t="s">
+        <v>69</v>
+      </c>
+      <c r="N19" t="s">
         <v>70</v>
-      </c>
-      <c r="N19" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="20">
       <c r="E20" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" t="n">
+        <f>编码规则数据!$E$9</f>
+        <v>0.0</v>
+      </c>
+      <c r="G20" t="s">
         <v>110</v>
       </c>
-      <c r="F20">
-        <f>编码规则数据!$E$9</f>
-      </c>
-      <c r="G20" t="s">
-        <v>108</v>
-      </c>
       <c r="H20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I20" t="s">
         <v>75</v>
@@ -3791,30 +3921,31 @@
         <v>75</v>
       </c>
       <c r="K20" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="L20" t="s">
         <v>68</v>
       </c>
       <c r="M20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N20" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21">
       <c r="E21" t="s">
-        <v>112</v>
-      </c>
-      <c r="F21">
-        <f>编码规则数据!$E$13</f>
+        <v>117</v>
+      </c>
+      <c r="F21" t="n">
+        <f>编码规则数据!$E$9</f>
+        <v>0.0</v>
       </c>
       <c r="G21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H21" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="I21" t="s">
         <v>75</v>
@@ -3822,28 +3953,32 @@
       <c r="J21" t="s">
         <v>75</v>
       </c>
+      <c r="K21" t="s">
+        <v>119</v>
+      </c>
       <c r="L21" t="s">
         <v>68</v>
       </c>
       <c r="M21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N21" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22">
       <c r="E22" t="s">
-        <v>113</v>
-      </c>
-      <c r="F22">
-        <f>编码规则数据!$E$10</f>
+        <v>120</v>
+      </c>
+      <c r="F22" t="n">
+        <f>编码规则数据!$E$9</f>
+        <v>0.0</v>
       </c>
       <c r="G22" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="H22" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="I22" t="s">
         <v>75</v>
@@ -3852,33 +3987,31 @@
         <v>75</v>
       </c>
       <c r="K22" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="L22" t="s">
         <v>68</v>
       </c>
       <c r="M22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N22" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23">
       <c r="E23" t="s">
-        <v>115</v>
-      </c>
-      <c r="F23">
-        <f>编码规则数据!$E$12</f>
+        <v>123</v>
+      </c>
+      <c r="F23" t="n">
+        <f>编码规则数据!$E$9</f>
+        <v>0.0</v>
       </c>
       <c r="G23" t="s">
-        <v>108</v>
-      </c>
-      <c r="H23" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="I23" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J23" t="s">
         <v>75</v>
@@ -3887,337 +4020,303 @@
         <v>68</v>
       </c>
       <c r="M23" t="s">
+        <v>69</v>
+      </c>
+      <c r="N23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="E24" t="s">
+        <v>126</v>
+      </c>
+      <c r="F24" t="n">
+        <f>编码规则数据!$E$9</f>
+        <v>0.0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>127</v>
+      </c>
+      <c r="H24" t="s">
+        <v>128</v>
+      </c>
+      <c r="I24" t="s">
+        <v>68</v>
+      </c>
+      <c r="J24" t="s">
+        <v>75</v>
+      </c>
+      <c r="L24" t="s">
+        <v>68</v>
+      </c>
+      <c r="M24" t="s">
+        <v>69</v>
+      </c>
+      <c r="N24" t="s">
         <v>70</v>
       </c>
-      <c r="N23" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="25">
-      <c r="A25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" t="s">
-        <v>116</v>
-      </c>
-      <c r="D25" t="s" s="49">
-        <v>117</v>
-      </c>
-      <c r="E25" t="s" s="50">
-        <v>118</v>
-      </c>
-      <c r="F25" t="s" s="51">
-        <v>119</v>
-      </c>
-      <c r="G25" t="s" s="52">
-        <v>120</v>
+      <c r="E25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F25" t="n">
+        <f>编码规则数据!$E$9</f>
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>127</v>
       </c>
       <c r="H25" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="I25" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="J25" t="s">
-        <v>123</v>
-      </c>
-      <c r="K25" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="L25" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="M25" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="N25" t="s">
-        <v>127</v>
-      </c>
-      <c r="O25" t="s">
-        <v>128</v>
-      </c>
-      <c r="P25" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>96</v>
-      </c>
-      <c r="R25" t="s">
-        <v>62</v>
-      </c>
-      <c r="S25" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26">
       <c r="E26" t="s">
-        <v>130</v>
-      </c>
-      <c r="F26">
-        <f>编码规则数据!$E$19</f>
+        <v>131</v>
+      </c>
+      <c r="F26" t="n">
+        <f>编码规则数据!$E$10</f>
+        <v>0.0</v>
       </c>
       <c r="G26" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="H26" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="I26" t="s">
+        <v>75</v>
+      </c>
+      <c r="J26" t="s">
+        <v>75</v>
+      </c>
+      <c r="L26" t="s">
+        <v>68</v>
+      </c>
+      <c r="M26" t="s">
+        <v>69</v>
+      </c>
+      <c r="N26" t="s">
         <v>132</v>
-      </c>
-      <c r="P26" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>68</v>
-      </c>
-      <c r="R26" t="s">
-        <v>70</v>
-      </c>
-      <c r="S26" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="27">
       <c r="E27" t="s">
-        <v>130</v>
-      </c>
-      <c r="F27">
-        <f>编码规则数据!$E$19</f>
+        <v>133</v>
+      </c>
+      <c r="F27" t="n">
+        <f>编码规则数据!$E$11</f>
+        <v>0.0</v>
       </c>
       <c r="G27" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="H27" t="s">
+        <v>121</v>
+      </c>
+      <c r="I27" t="s">
+        <v>75</v>
+      </c>
+      <c r="J27" t="s">
+        <v>75</v>
+      </c>
+      <c r="K27" t="s">
         <v>134</v>
       </c>
-      <c r="K27" t="s">
-        <v>135</v>
-      </c>
       <c r="L27" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="M27" t="s">
-        <v>136</v>
+        <v>69</v>
       </c>
       <c r="N27" t="s">
-        <v>137</v>
-      </c>
-      <c r="O27" t="s">
-        <v>138</v>
-      </c>
-      <c r="P27" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>68</v>
-      </c>
-      <c r="R27" t="s">
-        <v>70</v>
-      </c>
-      <c r="S27" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28">
       <c r="E28" t="s">
-        <v>130</v>
-      </c>
-      <c r="F28">
-        <f>编码规则数据!$E$20</f>
+        <v>135</v>
+      </c>
+      <c r="F28" t="n">
+        <f>编码规则数据!$E$12</f>
+        <v>0.0</v>
       </c>
       <c r="G28" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="H28" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="I28" t="s">
-        <v>139</v>
-      </c>
-      <c r="P28" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>68</v>
-      </c>
-      <c r="R28" t="s">
-        <v>70</v>
-      </c>
-      <c r="S28" t="s">
-        <v>101</v>
+        <v>75</v>
+      </c>
+      <c r="J28" t="s">
+        <v>75</v>
+      </c>
+      <c r="L28" t="s">
+        <v>68</v>
+      </c>
+      <c r="M28" t="s">
+        <v>69</v>
+      </c>
+      <c r="N28" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="29">
       <c r="E29" t="s">
-        <v>130</v>
-      </c>
-      <c r="F29">
-        <f>编码规则数据!$E$20</f>
+        <v>136</v>
+      </c>
+      <c r="F29" t="n">
+        <f>编码规则数据!$E$13</f>
+        <v>0.0</v>
       </c>
       <c r="G29" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="H29" t="s">
-        <v>134</v>
+        <v>121</v>
+      </c>
+      <c r="I29" t="s">
+        <v>75</v>
+      </c>
+      <c r="J29" t="s">
+        <v>75</v>
       </c>
       <c r="K29" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L29" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="M29" t="s">
-        <v>140</v>
+        <v>69</v>
       </c>
       <c r="N29" t="s">
-        <v>137</v>
-      </c>
-      <c r="O29" t="s">
-        <v>141</v>
-      </c>
-      <c r="P29" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>68</v>
-      </c>
-      <c r="R29" t="s">
-        <v>70</v>
-      </c>
-      <c r="S29" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30">
       <c r="E30" t="s">
-        <v>130</v>
-      </c>
-      <c r="F30">
-        <f>编码规则数据!$E$22</f>
+        <v>139</v>
+      </c>
+      <c r="F30" t="n">
+        <f>编码规则数据!$E$14</f>
+        <v>0.0</v>
       </c>
       <c r="G30" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="H30" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="I30" t="s">
-        <v>67</v>
-      </c>
-      <c r="P30" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>68</v>
-      </c>
-      <c r="R30" t="s">
-        <v>70</v>
-      </c>
-      <c r="S30" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="E31" t="s">
-        <v>130</v>
-      </c>
-      <c r="F31">
-        <f>编码规则数据!$E$22</f>
-      </c>
-      <c r="G31" t="s">
-        <v>133</v>
-      </c>
-      <c r="H31" t="s">
-        <v>134</v>
-      </c>
-      <c r="K31" t="s">
+        <v>75</v>
+      </c>
+      <c r="J30" t="s">
+        <v>75</v>
+      </c>
+      <c r="L30" t="s">
+        <v>68</v>
+      </c>
+      <c r="M30" t="s">
+        <v>69</v>
+      </c>
+      <c r="N30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" t="s">
+        <v>140</v>
+      </c>
+      <c r="D32" t="s" s="49">
+        <v>141</v>
+      </c>
+      <c r="E32" t="s" s="50">
         <v>142</v>
       </c>
-      <c r="L31" t="s">
-        <v>75</v>
-      </c>
-      <c r="M31" t="s">
+      <c r="F32" t="s" s="51">
         <v>143</v>
       </c>
-      <c r="N31" t="s">
-        <v>137</v>
-      </c>
-      <c r="O31" t="s">
+      <c r="G32" t="s" s="52">
         <v>144</v>
       </c>
-      <c r="P31" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>68</v>
-      </c>
-      <c r="R31" t="s">
-        <v>70</v>
-      </c>
-      <c r="S31" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="E32" t="s">
-        <v>130</v>
-      </c>
-      <c r="F32">
-        <f>编码规则数据!$E$23</f>
-      </c>
-      <c r="G32" t="s">
-        <v>75</v>
-      </c>
       <c r="H32" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="I32" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="J32" t="s">
+        <v>147</v>
+      </c>
+      <c r="K32" t="s">
+        <v>148</v>
+      </c>
+      <c r="L32" t="s">
+        <v>149</v>
+      </c>
+      <c r="M32" t="s">
+        <v>150</v>
+      </c>
+      <c r="N32" t="s">
+        <v>151</v>
+      </c>
+      <c r="O32" t="s">
+        <v>152</v>
       </c>
       <c r="P32" t="s">
-        <v>68</v>
+        <v>153</v>
       </c>
       <c r="Q32" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="R32" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="S32" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>130</v>
-      </c>
-      <c r="F33">
-        <f>编码规则数据!$E$23</f>
+        <v>154</v>
+      </c>
+      <c r="F33" t="n">
+        <f>编码规则数据!$E$22</f>
+        <v>0.0</v>
       </c>
       <c r="G33" t="s">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="H33" t="s">
-        <v>134</v>
-      </c>
-      <c r="K33" t="s">
-        <v>135</v>
-      </c>
-      <c r="L33" t="s">
-        <v>75</v>
-      </c>
-      <c r="M33" t="s">
-        <v>146</v>
-      </c>
-      <c r="N33" t="s">
-        <v>137</v>
-      </c>
-      <c r="O33" t="s">
-        <v>147</v>
+        <v>155</v>
+      </c>
+      <c r="I33" t="s">
+        <v>156</v>
       </c>
       <c r="P33" t="s">
         <v>68</v>
@@ -4226,27 +4325,40 @@
         <v>68</v>
       </c>
       <c r="R33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S33" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>130</v>
-      </c>
-      <c r="F34">
-        <f>编码规则数据!$E$21</f>
+        <v>154</v>
+      </c>
+      <c r="F34" t="n">
+        <f>编码规则数据!$E$22</f>
+        <v>0.0</v>
       </c>
       <c r="G34" t="s">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="H34" t="s">
-        <v>131</v>
-      </c>
-      <c r="I34" t="s">
-        <v>148</v>
+        <v>158</v>
+      </c>
+      <c r="K34" t="s">
+        <v>159</v>
+      </c>
+      <c r="L34" t="s">
+        <v>75</v>
+      </c>
+      <c r="M34" t="s">
+        <v>160</v>
+      </c>
+      <c r="N34" t="s">
+        <v>161</v>
+      </c>
+      <c r="O34" t="s">
+        <v>162</v>
       </c>
       <c r="P34" t="s">
         <v>68</v>
@@ -4255,39 +4367,28 @@
         <v>68</v>
       </c>
       <c r="R34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S34" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>130</v>
-      </c>
-      <c r="F35">
-        <f>编码规则数据!$E$21</f>
+        <v>154</v>
+      </c>
+      <c r="F35" t="n">
+        <f>编码规则数据!$E$27</f>
+        <v>0.0</v>
       </c>
       <c r="G35" t="s">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="H35" t="s">
-        <v>134</v>
-      </c>
-      <c r="K35" t="s">
-        <v>135</v>
-      </c>
-      <c r="L35" t="s">
-        <v>75</v>
-      </c>
-      <c r="M35" t="s">
-        <v>149</v>
-      </c>
-      <c r="N35" t="s">
-        <v>137</v>
-      </c>
-      <c r="O35" t="s">
-        <v>150</v>
+        <v>155</v>
+      </c>
+      <c r="I35" t="s">
+        <v>163</v>
       </c>
       <c r="P35" t="s">
         <v>68</v>
@@ -4296,27 +4397,40 @@
         <v>68</v>
       </c>
       <c r="R35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S35" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>130</v>
-      </c>
-      <c r="F36">
-        <f>编码规则数据!$E$16</f>
+        <v>154</v>
+      </c>
+      <c r="F36" t="n">
+        <f>编码规则数据!$E$27</f>
+        <v>0.0</v>
       </c>
       <c r="G36" t="s">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="H36" t="s">
-        <v>131</v>
-      </c>
-      <c r="I36" t="s">
-        <v>151</v>
+        <v>158</v>
+      </c>
+      <c r="K36" t="s">
+        <v>159</v>
+      </c>
+      <c r="L36" t="s">
+        <v>75</v>
+      </c>
+      <c r="M36" t="s">
+        <v>164</v>
+      </c>
+      <c r="N36" t="s">
+        <v>161</v>
+      </c>
+      <c r="O36" t="s">
+        <v>165</v>
       </c>
       <c r="P36" t="s">
         <v>68</v>
@@ -4325,39 +4439,28 @@
         <v>68</v>
       </c>
       <c r="R36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S36" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>130</v>
-      </c>
-      <c r="F37">
-        <f>编码规则数据!$E$16</f>
+        <v>154</v>
+      </c>
+      <c r="F37" t="n">
+        <f>编码规则数据!$E$29</f>
+        <v>0.0</v>
       </c>
       <c r="G37" t="s">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="H37" t="s">
-        <v>134</v>
-      </c>
-      <c r="K37" t="s">
-        <v>135</v>
-      </c>
-      <c r="L37" t="s">
-        <v>75</v>
-      </c>
-      <c r="M37" t="s">
-        <v>75</v>
-      </c>
-      <c r="N37" t="s">
-        <v>137</v>
-      </c>
-      <c r="O37" t="s">
-        <v>152</v>
+        <v>155</v>
+      </c>
+      <c r="I37" t="s">
+        <v>67</v>
       </c>
       <c r="P37" t="s">
         <v>68</v>
@@ -4366,51 +4469,790 @@
         <v>68</v>
       </c>
       <c r="R37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S37" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>130</v>
-      </c>
-      <c r="F38">
+        <v>154</v>
+      </c>
+      <c r="F38" t="n">
+        <f>编码规则数据!$E$29</f>
+        <v>0.0</v>
+      </c>
+      <c r="G38" t="s">
+        <v>157</v>
+      </c>
+      <c r="H38" t="s">
+        <v>158</v>
+      </c>
+      <c r="K38" t="s">
+        <v>166</v>
+      </c>
+      <c r="L38" t="s">
+        <v>75</v>
+      </c>
+      <c r="M38" t="s">
+        <v>167</v>
+      </c>
+      <c r="N38" t="s">
+        <v>161</v>
+      </c>
+      <c r="O38" t="s">
+        <v>168</v>
+      </c>
+      <c r="P38" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>68</v>
+      </c>
+      <c r="R38" t="s">
+        <v>69</v>
+      </c>
+      <c r="S38" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="E39" t="s">
+        <v>154</v>
+      </c>
+      <c r="F39" t="n">
+        <f>编码规则数据!$E$17</f>
+        <v>0.0</v>
+      </c>
+      <c r="G39" t="s">
+        <v>75</v>
+      </c>
+      <c r="H39" t="s">
+        <v>155</v>
+      </c>
+      <c r="I39" t="s">
+        <v>169</v>
+      </c>
+      <c r="P39" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>68</v>
+      </c>
+      <c r="R39" t="s">
+        <v>69</v>
+      </c>
+      <c r="S39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="E40" t="s">
+        <v>154</v>
+      </c>
+      <c r="F40" t="n">
+        <f>编码规则数据!$E$17</f>
+        <v>0.0</v>
+      </c>
+      <c r="G40" t="s">
+        <v>157</v>
+      </c>
+      <c r="H40" t="s">
+        <v>158</v>
+      </c>
+      <c r="K40" t="s">
+        <v>159</v>
+      </c>
+      <c r="L40" t="s">
+        <v>75</v>
+      </c>
+      <c r="M40" t="s">
+        <v>170</v>
+      </c>
+      <c r="N40" t="s">
+        <v>161</v>
+      </c>
+      <c r="O40" t="s">
+        <v>171</v>
+      </c>
+      <c r="P40" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>68</v>
+      </c>
+      <c r="R40" t="s">
+        <v>69</v>
+      </c>
+      <c r="S40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="E41" t="s">
+        <v>154</v>
+      </c>
+      <c r="F41" t="n">
+        <f>编码规则数据!$E$30</f>
+        <v>0.0</v>
+      </c>
+      <c r="G41" t="s">
+        <v>75</v>
+      </c>
+      <c r="H41" t="s">
+        <v>155</v>
+      </c>
+      <c r="I41" t="s">
+        <v>172</v>
+      </c>
+      <c r="P41" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>68</v>
+      </c>
+      <c r="R41" t="s">
+        <v>69</v>
+      </c>
+      <c r="S41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="E42" t="s">
+        <v>154</v>
+      </c>
+      <c r="F42" t="n">
+        <f>编码规则数据!$E$30</f>
+        <v>0.0</v>
+      </c>
+      <c r="G42" t="s">
+        <v>157</v>
+      </c>
+      <c r="H42" t="s">
+        <v>158</v>
+      </c>
+      <c r="K42" t="s">
+        <v>159</v>
+      </c>
+      <c r="L42" t="s">
+        <v>75</v>
+      </c>
+      <c r="M42" t="s">
+        <v>173</v>
+      </c>
+      <c r="N42" t="s">
+        <v>161</v>
+      </c>
+      <c r="O42" t="s">
+        <v>174</v>
+      </c>
+      <c r="P42" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>68</v>
+      </c>
+      <c r="R42" t="s">
+        <v>69</v>
+      </c>
+      <c r="S42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="E43" t="s">
+        <v>154</v>
+      </c>
+      <c r="F43" t="n">
+        <f>编码规则数据!$E$28</f>
+        <v>0.0</v>
+      </c>
+      <c r="G43" t="s">
+        <v>75</v>
+      </c>
+      <c r="H43" t="s">
+        <v>155</v>
+      </c>
+      <c r="I43" t="s">
+        <v>175</v>
+      </c>
+      <c r="P43" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>68</v>
+      </c>
+      <c r="R43" t="s">
+        <v>69</v>
+      </c>
+      <c r="S43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="E44" t="s">
+        <v>154</v>
+      </c>
+      <c r="F44" t="n">
+        <f>编码规则数据!$E$28</f>
+        <v>0.0</v>
+      </c>
+      <c r="G44" t="s">
+        <v>157</v>
+      </c>
+      <c r="H44" t="s">
+        <v>158</v>
+      </c>
+      <c r="K44" t="s">
+        <v>159</v>
+      </c>
+      <c r="L44" t="s">
+        <v>75</v>
+      </c>
+      <c r="M44" t="s">
+        <v>176</v>
+      </c>
+      <c r="N44" t="s">
+        <v>161</v>
+      </c>
+      <c r="O44" t="s">
+        <v>177</v>
+      </c>
+      <c r="P44" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>68</v>
+      </c>
+      <c r="R44" t="s">
+        <v>69</v>
+      </c>
+      <c r="S44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="E45" t="s">
+        <v>154</v>
+      </c>
+      <c r="F45" t="n">
+        <f>编码规则数据!$E$20</f>
+        <v>0.0</v>
+      </c>
+      <c r="G45" t="s">
+        <v>75</v>
+      </c>
+      <c r="H45" t="s">
+        <v>158</v>
+      </c>
+      <c r="K45" t="s">
+        <v>178</v>
+      </c>
+      <c r="L45" t="s">
+        <v>75</v>
+      </c>
+      <c r="M45" t="s">
+        <v>179</v>
+      </c>
+      <c r="N45" t="s">
+        <v>161</v>
+      </c>
+      <c r="O45" t="s">
+        <v>180</v>
+      </c>
+      <c r="P45" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>68</v>
+      </c>
+      <c r="R45" t="s">
+        <v>69</v>
+      </c>
+      <c r="S45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="E46" t="s">
+        <v>154</v>
+      </c>
+      <c r="F46" t="n">
+        <f>编码规则数据!$E$21</f>
+        <v>0.0</v>
+      </c>
+      <c r="G46" t="s">
+        <v>75</v>
+      </c>
+      <c r="H46" t="s">
+        <v>181</v>
+      </c>
+      <c r="I46" t="s">
+        <v>182</v>
+      </c>
+      <c r="P46" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>68</v>
+      </c>
+      <c r="R46" t="s">
+        <v>69</v>
+      </c>
+      <c r="S46" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="E47" t="s">
+        <v>154</v>
+      </c>
+      <c r="F47" t="n">
         <f>编码规则数据!$E$18</f>
-      </c>
-      <c r="G38" t="s">
-        <v>75</v>
-      </c>
-      <c r="H38" t="s">
-        <v>134</v>
-      </c>
-      <c r="K38" t="s">
-        <v>153</v>
-      </c>
-      <c r="L38" t="s">
-        <v>75</v>
-      </c>
-      <c r="M38" t="s">
-        <v>75</v>
-      </c>
-      <c r="N38" t="s">
-        <v>137</v>
-      </c>
-      <c r="O38" t="s">
+        <v>0.0</v>
+      </c>
+      <c r="G47" t="s">
+        <v>75</v>
+      </c>
+      <c r="H47" t="s">
+        <v>158</v>
+      </c>
+      <c r="K47" t="s">
+        <v>159</v>
+      </c>
+      <c r="L47" t="s">
+        <v>75</v>
+      </c>
+      <c r="M47" t="s">
+        <v>75</v>
+      </c>
+      <c r="N47" t="s">
+        <v>184</v>
+      </c>
+      <c r="O47" t="s">
+        <v>185</v>
+      </c>
+      <c r="P47" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>68</v>
+      </c>
+      <c r="R47" t="s">
+        <v>69</v>
+      </c>
+      <c r="S47" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="E48" t="s">
         <v>154</v>
       </c>
-      <c r="P38" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>68</v>
-      </c>
-      <c r="R38" t="s">
+      <c r="F48" t="n">
+        <f>编码规则数据!$E$18</f>
+        <v>0.0</v>
+      </c>
+      <c r="G48" t="s">
+        <v>157</v>
+      </c>
+      <c r="H48" t="s">
+        <v>181</v>
+      </c>
+      <c r="I48" t="s">
+        <v>182</v>
+      </c>
+      <c r="P48" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>68</v>
+      </c>
+      <c r="R48" t="s">
+        <v>69</v>
+      </c>
+      <c r="S48" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="E49" t="s">
+        <v>154</v>
+      </c>
+      <c r="F49" t="n">
+        <f>编码规则数据!$E$19</f>
+        <v>0.0</v>
+      </c>
+      <c r="G49" t="s">
+        <v>75</v>
+      </c>
+      <c r="H49" t="s">
+        <v>187</v>
+      </c>
+      <c r="J49" t="s">
+        <v>188</v>
+      </c>
+      <c r="P49" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>68</v>
+      </c>
+      <c r="R49" t="s">
+        <v>69</v>
+      </c>
+      <c r="S49" t="s">
         <v>70</v>
       </c>
-      <c r="S38" t="s">
-        <v>101</v>
+    </row>
+    <row r="50">
+      <c r="E50" t="s">
+        <v>154</v>
+      </c>
+      <c r="F50" t="n">
+        <f>编码规则数据!$E$19</f>
+        <v>0.0</v>
+      </c>
+      <c r="G50" t="s">
+        <v>157</v>
+      </c>
+      <c r="H50" t="s">
+        <v>187</v>
+      </c>
+      <c r="J50" t="s">
+        <v>189</v>
+      </c>
+      <c r="P50" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>68</v>
+      </c>
+      <c r="R50" t="s">
+        <v>69</v>
+      </c>
+      <c r="S50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="E51" t="s">
+        <v>154</v>
+      </c>
+      <c r="F51" t="n">
+        <f>编码规则数据!$E$26</f>
+        <v>0.0</v>
+      </c>
+      <c r="G51" t="s">
+        <v>75</v>
+      </c>
+      <c r="H51" t="s">
+        <v>155</v>
+      </c>
+      <c r="I51" t="s">
+        <v>190</v>
+      </c>
+      <c r="P51" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>68</v>
+      </c>
+      <c r="R51" t="s">
+        <v>69</v>
+      </c>
+      <c r="S51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="E52" t="s">
+        <v>154</v>
+      </c>
+      <c r="F52" t="n">
+        <f>编码规则数据!$E$26</f>
+        <v>0.0</v>
+      </c>
+      <c r="G52" t="s">
+        <v>157</v>
+      </c>
+      <c r="H52" t="s">
+        <v>187</v>
+      </c>
+      <c r="J52" t="s">
+        <v>188</v>
+      </c>
+      <c r="P52" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>68</v>
+      </c>
+      <c r="R52" t="s">
+        <v>69</v>
+      </c>
+      <c r="S52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="E53" t="s">
+        <v>154</v>
+      </c>
+      <c r="F53" t="n">
+        <f>编码规则数据!$E$26</f>
+        <v>0.0</v>
+      </c>
+      <c r="G53" t="s">
+        <v>191</v>
+      </c>
+      <c r="H53" t="s">
+        <v>158</v>
+      </c>
+      <c r="K53" t="s">
+        <v>191</v>
+      </c>
+      <c r="L53" t="s">
+        <v>75</v>
+      </c>
+      <c r="M53" t="s">
+        <v>75</v>
+      </c>
+      <c r="N53" t="s">
+        <v>184</v>
+      </c>
+      <c r="O53" t="s">
+        <v>192</v>
+      </c>
+      <c r="P53" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>68</v>
+      </c>
+      <c r="R53" t="s">
+        <v>69</v>
+      </c>
+      <c r="S53" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="E54" t="s">
+        <v>154</v>
+      </c>
+      <c r="F54" t="n">
+        <f>编码规则数据!$E$23</f>
+        <v>0.0</v>
+      </c>
+      <c r="G54" t="s">
+        <v>75</v>
+      </c>
+      <c r="H54" t="s">
+        <v>193</v>
+      </c>
+      <c r="K54" t="s">
+        <v>159</v>
+      </c>
+      <c r="P54" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>68</v>
+      </c>
+      <c r="R54" t="s">
+        <v>69</v>
+      </c>
+      <c r="S54" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="E55" t="s">
+        <v>154</v>
+      </c>
+      <c r="F55" t="n">
+        <f>编码规则数据!$E$23</f>
+        <v>0.0</v>
+      </c>
+      <c r="G55" t="s">
+        <v>157</v>
+      </c>
+      <c r="H55" t="s">
+        <v>187</v>
+      </c>
+      <c r="J55" t="s">
+        <v>188</v>
+      </c>
+      <c r="P55" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>68</v>
+      </c>
+      <c r="R55" t="s">
+        <v>69</v>
+      </c>
+      <c r="S55" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="E56" t="s">
+        <v>154</v>
+      </c>
+      <c r="F56" t="n">
+        <f>编码规则数据!$E$23</f>
+        <v>0.0</v>
+      </c>
+      <c r="G56" t="s">
+        <v>194</v>
+      </c>
+      <c r="H56" t="s">
+        <v>181</v>
+      </c>
+      <c r="I56" t="s">
+        <v>182</v>
+      </c>
+      <c r="P56" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>68</v>
+      </c>
+      <c r="R56" t="s">
+        <v>69</v>
+      </c>
+      <c r="S56" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="E57" t="s">
+        <v>154</v>
+      </c>
+      <c r="F57" t="n">
+        <f>编码规则数据!$E$23</f>
+        <v>0.0</v>
+      </c>
+      <c r="G57" t="s">
+        <v>178</v>
+      </c>
+      <c r="H57" t="s">
+        <v>158</v>
+      </c>
+      <c r="K57" t="s">
+        <v>157</v>
+      </c>
+      <c r="L57" t="s">
+        <v>75</v>
+      </c>
+      <c r="N57" t="s">
+        <v>195</v>
+      </c>
+      <c r="P57" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>68</v>
+      </c>
+      <c r="R57" t="s">
+        <v>69</v>
+      </c>
+      <c r="S57" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="E58" t="s">
+        <v>154</v>
+      </c>
+      <c r="F58" t="n">
+        <f>编码规则数据!$E$23</f>
+        <v>0.0</v>
+      </c>
+      <c r="G58" t="s">
+        <v>166</v>
+      </c>
+      <c r="H58" t="s">
+        <v>193</v>
+      </c>
+      <c r="K58" t="s">
+        <v>196</v>
+      </c>
+      <c r="P58" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>68</v>
+      </c>
+      <c r="R58" t="s">
+        <v>69</v>
+      </c>
+      <c r="S58" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="E59" t="s">
+        <v>154</v>
+      </c>
+      <c r="F59" t="n">
+        <f>编码规则数据!$E$23</f>
+        <v>0.0</v>
+      </c>
+      <c r="G59" t="s">
+        <v>197</v>
+      </c>
+      <c r="H59" t="s">
+        <v>193</v>
+      </c>
+      <c r="K59" t="s">
+        <v>159</v>
+      </c>
+      <c r="P59" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>68</v>
+      </c>
+      <c r="R59" t="s">
+        <v>69</v>
+      </c>
+      <c r="S59" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="E60" t="s">
+        <v>154</v>
+      </c>
+      <c r="F60" t="n">
+        <f>编码规则数据!$E$25</f>
+        <v>0.0</v>
+      </c>
+      <c r="G60" t="s">
+        <v>75</v>
+      </c>
+      <c r="H60" t="s">
+        <v>193</v>
+      </c>
+      <c r="K60" t="s">
+        <v>159</v>
+      </c>
+      <c r="P60" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>68</v>
+      </c>
+      <c r="R60" t="s">
+        <v>69</v>
+      </c>
+      <c r="S60" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
